--- a/src/lang/lang.xlsx
+++ b/src/lang/lang.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="57">
   <si>
     <t xml:space="preserve">模组</t>
   </si>
@@ -28,25 +28,237 @@
     <t xml:space="preserve">NAME</t>
   </si>
   <si>
-    <t xml:space="preserve">zh-tw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zh-cn</t>
+    <t xml:space="preserve">tw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cn</t>
   </si>
   <si>
     <t xml:space="preserve">en</t>
   </si>
   <si>
-    <t xml:space="preserve">BAS</t>
-  </si>
-  <si>
     <t xml:space="preserve">LOGIN</t>
   </si>
   <si>
+    <t xml:space="preserve">WELCOME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">歡迎回來! </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">欢迎回来</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">! </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Welcome Back !</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WELCOME_SUB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">登入撲克夢以繼續管理.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">登入扑克梦以继续管理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Sign in to continue to Poker Mars.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMAIL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">信箱</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PASSWORD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">密碼</t>
+  </si>
+  <si>
+    <t xml:space="preserve">密码</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMAIL_PLACEHOLDER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">輸入您的信箱</t>
+  </si>
+  <si>
+    <t xml:space="preserve">输入您的信箱</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter your email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PASSWORD_PLACEHOLDER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">輸入您的密碼</t>
+  </si>
+  <si>
+    <t xml:space="preserve">输入您的密码</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter your password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REMEMBER_ACCOUNT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">記住我的帳號</t>
+  </si>
+  <si>
+    <t xml:space="preserve">记住我的帐号</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remember me</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOGIN_TEXT</t>
+  </si>
+  <si>
     <t xml:space="preserve">登入</t>
   </si>
   <si>
     <t xml:space="preserve">Login</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MSG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REQUIRED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{field} 為必填</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">{field} </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">为必填</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">{field} is required</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FORMAT_ERROR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{field} 格式錯誤</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">{field} </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">格式错误</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">{field}  format is invalid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROFILE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">會員資料</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHANGE_PASSWORD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">更改密碼</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Change Password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARGIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">保證金</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOGOUT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">登出</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Logout</t>
   </si>
 </sst>
 </file>
@@ -56,7 +268,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="微軟正黑體"/>
@@ -81,6 +293,12 @@
       <family val="0"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -124,12 +342,32 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -150,22 +388,28 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
+      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.03515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="55.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="28.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="25.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="50.44"/>
+  </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -175,21 +419,242 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
+      <c r="D2" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" s="5" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" s="5" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/src/lang/lang.xlsx
+++ b/src/lang/lang.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="236">
   <si>
     <t xml:space="preserve">模组</t>
   </si>
@@ -234,6 +234,9 @@
     <t xml:space="preserve">會員資料</t>
   </si>
   <si>
+    <t xml:space="preserve">会员资料</t>
+  </si>
+  <si>
     <t xml:space="preserve">Profile</t>
   </si>
   <si>
@@ -243,6 +246,9 @@
     <t xml:space="preserve">更改密碼</t>
   </si>
   <si>
+    <t xml:space="preserve">更改密码</t>
+  </si>
+  <si>
     <t xml:space="preserve">Change Password</t>
   </si>
   <si>
@@ -252,6 +258,9 @@
     <t xml:space="preserve">保證金</t>
   </si>
   <si>
+    <t xml:space="preserve">保证金</t>
+  </si>
+  <si>
     <t xml:space="preserve">LOGOUT</t>
   </si>
   <si>
@@ -259,6 +268,534 @@
   </si>
   <si>
     <t xml:space="preserve">Logout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIME_PROGRESS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MONTH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">月份</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MONTH_JAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">一月</t>
+  </si>
+  <si>
+    <t xml:space="preserve">January</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MONTH_FEB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">二月</t>
+  </si>
+  <si>
+    <t xml:space="preserve">February</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MONTH_MAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">三月</t>
+  </si>
+  <si>
+    <t xml:space="preserve">March</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MONTH_APR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">四月</t>
+  </si>
+  <si>
+    <t xml:space="preserve">April</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MONTH_MAY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">五月</t>
+  </si>
+  <si>
+    <t xml:space="preserve">May</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MONTH_JUN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">六月</t>
+  </si>
+  <si>
+    <t xml:space="preserve">June</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MONTH_JUL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">七月</t>
+  </si>
+  <si>
+    <t xml:space="preserve">July</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MONTH_AUG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">八月</t>
+  </si>
+  <si>
+    <t xml:space="preserve">August</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MONTH_SEP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">九月</t>
+  </si>
+  <si>
+    <t xml:space="preserve">September</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MONTH_OCT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">十月</t>
+  </si>
+  <si>
+    <t xml:space="preserve">October</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MONTH_NOV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">十一月</t>
+  </si>
+  <si>
+    <t xml:space="preserve">November</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MONTH_DEC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">十二月</t>
+  </si>
+  <si>
+    <t xml:space="preserve">December</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PASSED_DAYS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">已過天數</t>
+  </si>
+  <si>
+    <t xml:space="preserve">已过天数</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Days Passed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOTAL_DAYS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">總天數</t>
+  </si>
+  <si>
+    <t xml:space="preserve">总天数</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Days Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIME_PASSED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">時間已過</t>
+  </si>
+  <si>
+    <t xml:space="preserve">时间已过</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time Passed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPDATE_TIME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">資料更新時間</t>
+  </si>
+  <si>
+    <t xml:space="preserve">资料更新时间</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Last Updated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REFRESH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">刷新</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Refresh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAGE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DASHBOARD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">儀錶板</t>
+  </si>
+  <si>
+    <t xml:space="preserve">仪表板</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dashboard </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DATE_TIME_FILTER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">START_TIME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">開始時間</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Start Time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">END_TIME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">結束時間</t>
+  </si>
+  <si>
+    <t xml:space="preserve">End Time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TODAY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">本日</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Today</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WEEK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">本周</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Week</t>
+  </si>
+  <si>
+    <t xml:space="preserve">本月</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Month</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEARCH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">搜尋</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOTAL_REVENUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">總收益 (USD)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">总收益 (USD)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Revenue (USD)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MONTHLY_REVENUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">本月收益 (USD) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monthly Revenue (USD) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOTAL_GAME_ROUNDS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">總牌局數量 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">总牌局数量 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Game Rounds </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOTAL_AGENTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">代理總數 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">代理总数 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Agents </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOTAL_PLAYERS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">玩家總數 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">玩家总数 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Players </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GAME_DEPOSIT_AMOUNT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">存款金額 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">游戏存款金额 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Game Deposit Amount </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GAME_WITHDRAWAL_AMOUNT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">提款金額</t>
+  </si>
+  <si>
+    <t xml:space="preserve">游戏提款金额 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Game Withdrawal Amount </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ONLINE_PLAYERS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">線上人數 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">在线人数 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Online Players </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLAYERS_IN_GAME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">遊戲中人數 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">游戏中人数 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Players in Game </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOTAL_HIGH_SEAS_AGENTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">公海代理總數 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">公海代理总数 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total High Seas Agents </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HIGH_SEAS_PLAYER_OPEN_TABLES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">公海玩家開桌總數 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">公海玩家开桌总数 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">High Seas Player Open Tables </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HIGH_SEAS_MARGIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">公海保證金 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">公海保证金 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">High Seas Margin </t>
+  </si>
+  <si>
+    <t xml:space="preserve">REGISTER_TOTAL_PLAYERS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">註冊玩家總數</t>
+  </si>
+  <si>
+    <t xml:space="preserve">注册玩家总数 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Register Total Players</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SINCE_LAST_WEEK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">自上週以來</t>
+  </si>
+  <si>
+    <t xml:space="preserve">自上周以来</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Since Last Week</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HIGHEST_GAME_PLAYERS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">最高遊戲人數</t>
+  </si>
+  <si>
+    <t xml:space="preserve">最高游戏人数</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Highest Game Players</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GAME_ROUND_RATIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">遊戲局數比例</t>
+  </si>
+  <si>
+    <t xml:space="preserve">游戏局数比例</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Game Round Ratio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGENT_PROFIT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">代理盈虧紀錄</t>
+  </si>
+  <si>
+    <t xml:space="preserve">代理盈亏纪录</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agent Profit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRE_REVENUE_SHARE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">分成前總收益 (USD)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pre-revenue Share  (USD)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POST_REVENUE_SHARE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">分成後總收益 (USD)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Post-revenue Share  (USD)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGENT_PRE_REVENUE_SHARE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">代理商分成前總收益 (USD)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agent Pre-revenue Share  (USD)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YESTERDAY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">昨日</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yesterday</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAST_WEEK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">上週</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Last Week</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAST_MONTH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">上月</t>
+  </si>
+  <si>
+    <t xml:space="preserve">上月 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Last Month</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SINCE_YESTERDAY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">自昨日以來</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Since yesterday</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Since last week</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SINCE_LAST_MONTH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">自上月以來</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Since last month</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GET_DATA_FAIL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">取得{page}資料錯誤</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get {page} Data Fail</t>
   </si>
 </sst>
 </file>
@@ -268,7 +805,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="微軟正黑體"/>
@@ -296,6 +833,12 @@
     <font>
       <sz val="10"/>
       <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="微軟正黑體"/>
       <family val="2"/>
       <charset val="136"/>
     </font>
@@ -342,8 +885,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -355,19 +902,27 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -388,42 +943,43 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E63" activeCellId="0" sqref="E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.03515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="55.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="28.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="25.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="50.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="20.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="55.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="28.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="25.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="50.44"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="2" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+    <row r="2" s="2" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -432,229 +988,1113 @@
       <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" s="5" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+    <row r="3" s="2" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
+    <row r="4" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="s">
+    <row r="5" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="s">
+    <row r="8" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="s">
+    <row r="9" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" s="5" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="s">
+    <row r="10" s="2" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="11" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="s">
+    <row r="11" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="12" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5" t="s">
+    <row r="12" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" s="5" t="s">
+      <c r="D12" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="13" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5" t="s">
+      <c r="E12" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="5" t="s">
+      <c r="B13" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E13" s="5" t="s">
+      <c r="C13" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="14" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5" t="s">
+      <c r="D13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5" t="s">
+      <c r="B14" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>56</v>
+      <c r="B15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="29" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="30" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="31" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="32" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="33" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="34" s="2" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="35" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="36" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="37" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="38" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="39" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="40" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="41" s="2" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="42" s="2" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="43" s="2" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="44" s="2" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="45" s="2" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="46" s="2" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="47" s="2" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="48" s="2" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="49" s="2" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="50" s="2" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="51" s="2" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="52" s="2" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="53" s="2" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="54" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="55" s="7" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="56" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="57" s="7" customFormat="true" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="58" s="7" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="59" s="7" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="60" s="7" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="67" s="7" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>235</v>
       </c>
     </row>
   </sheetData>

--- a/src/lang/lang.xlsx
+++ b/src/lang/lang.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="335">
   <si>
     <t xml:space="preserve">模组</t>
   </si>
@@ -796,6 +796,303 @@
   </si>
   <si>
     <t xml:space="preserve">Get {page} Data Fail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GA_NAME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">總代理編號 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">总代理编号</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Master Agent ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GA_COMPANY_NAME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">總代理名稱</t>
+  </si>
+  <si>
+    <t xml:space="preserve">总代理名称</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Master Agent Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGENT_NAME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">代理編號</t>
+  </si>
+  <si>
+    <t xml:space="preserve">代理编号</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agent ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COMPANY_NAME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">代理名稱</t>
+  </si>
+  <si>
+    <t xml:space="preserve">代理名称</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agent Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROUND_ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">牌局編號</t>
+  </si>
+  <si>
+    <t xml:space="preserve">牌局编号</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Game Round ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACCOUNT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">代理商玩家編號</t>
+  </si>
+  <si>
+    <t xml:space="preserve">代理商玩家编号</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agent Player ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPLIT_GOLD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">代理商分成前收益</t>
+  </si>
+  <si>
+    <t xml:space="preserve">代理商拆账前收益</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Income before agent commission</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCOME_SPLIT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">分成比例</t>
+  </si>
+  <si>
+    <t xml:space="preserve">拆账比例</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Split Percentage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCOME_TYPE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">收益/支出類別</t>
+  </si>
+  <si>
+    <t xml:space="preserve">收益/支出类别</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Income/Expense Category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGENT_SPLIT_GOLD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">收益金額</t>
+  </si>
+  <si>
+    <t xml:space="preserve">收益金额</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Income Amount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGENT_SPLIT_GOLD_DEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">支出金額</t>
+  </si>
+  <si>
+    <t xml:space="preserve">支出金额</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expense Amount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GOLD_TYPE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">貨幣類別</t>
+  </si>
+  <si>
+    <t xml:space="preserve">货币类别</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Currency Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEA_TYPE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">收益/支出所屬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">收益/支出所属</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Income/Expense Source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SETTLEMENT_STATUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">結算狀態</t>
+  </si>
+  <si>
+    <t xml:space="preserve">结算状态</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Settlement Status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CREATE_TIME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">交易時間</t>
+  </si>
+  <si>
+    <t xml:space="preserve">交易时间</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transaction Time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PDF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EXPERIENCE_COINS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">體驗幣</t>
+  </si>
+  <si>
+    <t xml:space="preserve">体验币</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo Coins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOLLARS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">美元</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHIPS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">籌碼</t>
+  </si>
+  <si>
+    <t xml:space="preserve">筹码</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chips</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIAMONDS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">鑽石</t>
+  </si>
+  <si>
+    <t xml:space="preserve">钻石</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diamonds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRIVATE_SEA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">私海牌局</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Private Table</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUBLIC_SEA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">公海牌局</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Public Table</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TABLE_TYPE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRIVATE_TABLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">私人桌</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUBLIC_TABLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">公共桌</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNSETTLED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">未結算</t>
+  </si>
+  <si>
+    <t xml:space="preserve">未结算</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unsettled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SETTLED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">已結算</t>
+  </si>
+  <si>
+    <t xml:space="preserve">已结算</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Settled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOWNLOAD_FAIL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">下載失敗，請稍後重試！ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">下载失败，请稍后重试！ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Download failed, please try again later!</t>
   </si>
 </sst>
 </file>
@@ -885,7 +1182,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -910,20 +1207,24 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -943,10 +1244,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E67"/>
+  <dimension ref="A1:E94"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E63" activeCellId="0" sqref="E63"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A71" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E99" activeCellId="0" sqref="E99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.03515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1876,24 +2177,24 @@
         <v>194</v>
       </c>
     </row>
-    <row r="55" s="7" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" s="6" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B55" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="C55" s="6" t="s">
+      <c r="C55" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="D55" s="6" t="s">
+      <c r="D55" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="E55" s="6" t="s">
+      <c r="E55" s="3" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="56" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="2" t="s">
         <v>119</v>
       </c>
@@ -1910,24 +2211,24 @@
         <v>202</v>
       </c>
     </row>
-    <row r="57" s="7" customFormat="true" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" s="6" customFormat="true" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="2" t="s">
         <v>118</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="C57" s="8" t="s">
+      <c r="C57" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="D57" s="9" t="s">
+      <c r="D57" s="8" t="s">
         <v>205</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="58" s="7" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" s="6" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="2" t="s">
         <v>203</v>
       </c>
@@ -1940,41 +2241,41 @@
       <c r="D58" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="E58" s="6" t="s">
+      <c r="E58" s="3" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="59" s="7" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" s="6" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="B59" s="6" t="s">
+      <c r="B59" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="C59" s="6" t="s">
+      <c r="C59" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="D59" s="6" t="s">
+      <c r="D59" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="E59" s="6" t="s">
+      <c r="E59" s="3" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="60" s="7" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" s="6" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="2" t="s">
         <v>203</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="C60" s="6" t="s">
+      <c r="C60" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="D60" s="6" t="s">
+      <c r="D60" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="E60" s="6" t="s">
+      <c r="E60" s="3" t="s">
         <v>215</v>
       </c>
     </row>
@@ -1985,13 +2286,13 @@
       <c r="B61" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="C61" s="6" t="s">
+      <c r="C61" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="D61" s="6" t="s">
+      <c r="D61" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="E61" s="6" t="s">
+      <c r="E61" s="3" t="s">
         <v>218</v>
       </c>
     </row>
@@ -2002,13 +2303,13 @@
       <c r="B62" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="C62" s="6" t="s">
+      <c r="C62" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="D62" s="6" t="s">
+      <c r="D62" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="E62" s="6" t="s">
+      <c r="E62" s="3" t="s">
         <v>221</v>
       </c>
     </row>
@@ -2019,13 +2320,13 @@
       <c r="B63" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="C63" s="6" t="s">
+      <c r="C63" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="D63" s="6" t="s">
+      <c r="D63" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="E63" s="6" t="s">
+      <c r="E63" s="3" t="s">
         <v>225</v>
       </c>
     </row>
@@ -2036,13 +2337,13 @@
       <c r="B64" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="C64" s="6" t="s">
+      <c r="C64" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="D64" s="6" t="s">
+      <c r="D64" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="E64" s="6" t="s">
+      <c r="E64" s="3" t="s">
         <v>228</v>
       </c>
     </row>
@@ -2053,13 +2354,13 @@
       <c r="B65" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="C65" s="6" t="s">
+      <c r="C65" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="D65" s="6" t="s">
+      <c r="D65" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="E65" s="6" t="s">
+      <c r="E65" s="3" t="s">
         <v>229</v>
       </c>
     </row>
@@ -2070,17 +2371,17 @@
       <c r="B66" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="C66" s="6" t="s">
+      <c r="C66" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="D66" s="6" t="s">
+      <c r="D66" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="E66" s="6" t="s">
+      <c r="E66" s="3" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="67" s="7" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" s="6" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="2" t="s">
         <v>36</v>
       </c>
@@ -2095,6 +2396,465 @@
       </c>
       <c r="E67" s="2" t="s">
         <v>235</v>
+      </c>
+    </row>
+    <row r="68" s="6" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="84" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="E84" s="6" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="85" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="E85" s="6" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="86" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="E86" s="6" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="87" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="E87" s="6" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="88" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="E88" s="6" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="89" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="E89" s="6" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="90" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="E90" s="6" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="91" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="E91" s="6" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="92" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="E92" s="6" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="93" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="E93" s="6" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="94" s="9" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="C94" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="D94" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="E94" s="6" t="s">
+        <v>334</v>
       </c>
     </row>
   </sheetData>

--- a/src/lang/lang.xlsx
+++ b/src/lang/lang.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="340">
   <si>
     <t xml:space="preserve">模组</t>
   </si>
@@ -1093,6 +1093,21 @@
   </si>
   <si>
     <t xml:space="preserve">Download failed, please try again later!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DATA_TABLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LENGTH_MENU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">顯示</t>
+  </si>
+  <si>
+    <t xml:space="preserve">显示</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Show</t>
   </si>
 </sst>
 </file>
@@ -1182,7 +1197,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1223,10 +1238,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1244,10 +1255,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E94"/>
+  <dimension ref="A1:E95"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A71" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E99" activeCellId="0" sqref="E99"/>
+      <selection pane="topLeft" activeCell="A95" activeCellId="0" sqref="A95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.03515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2670,7 +2681,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="84" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="6" t="s">
         <v>280</v>
       </c>
@@ -2687,7 +2698,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="85" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="6" t="s">
         <v>280</v>
       </c>
@@ -2704,7 +2715,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="86" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="6" t="s">
         <v>280</v>
       </c>
@@ -2721,7 +2732,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="87" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="6" t="s">
         <v>280</v>
       </c>
@@ -2738,7 +2749,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="88" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="6" t="s">
         <v>284</v>
       </c>
@@ -2755,7 +2766,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="89" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="6" t="s">
         <v>284</v>
       </c>
@@ -2772,7 +2783,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="90" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="6" t="s">
         <v>318</v>
       </c>
@@ -2789,7 +2800,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="91" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="6" t="s">
         <v>318</v>
       </c>
@@ -2806,7 +2817,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="92" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="6" t="s">
         <v>288</v>
       </c>
@@ -2823,7 +2834,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="93" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="6" t="s">
         <v>288</v>
       </c>
@@ -2840,21 +2851,38 @@
         <v>330</v>
       </c>
     </row>
-    <row r="94" s="9" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" s="6" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="6" t="s">
         <v>36</v>
       </c>
       <c r="B94" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="C94" s="10" t="s">
+      <c r="C94" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="D94" s="10" t="s">
+      <c r="D94" s="3" t="s">
         <v>333</v>
       </c>
       <c r="E94" s="6" t="s">
         <v>334</v>
+      </c>
+    </row>
+    <row r="95" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="E95" s="6" t="s">
+        <v>339</v>
       </c>
     </row>
   </sheetData>
